--- a/InVanWebApp/ExcelFileFormat/Download-Format-Recipe-Item.xlsx
+++ b/InVanWebApp/ExcelFileFormat/Download-Format-Recipe-Item.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A68B18-5414-49A4-89C8-F6508EF3357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA40C0E-64A1-4A7F-8B8F-E19E06705D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -31,37 +31,22 @@
     <t>Cumin Seeds</t>
   </si>
   <si>
-    <t>Kashmiri red chilli powder</t>
-  </si>
-  <si>
-    <t>Garlic Cloves</t>
-  </si>
-  <si>
-    <t>Sunflower Oil</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Fresh Onion</t>
-  </si>
-  <si>
-    <t>Turmeric Powder</t>
-  </si>
-  <si>
-    <t>Kesha Masalo</t>
-  </si>
-  <si>
-    <t>Tomato Chopped</t>
-  </si>
-  <si>
-    <t>Kasuri Methi</t>
-  </si>
-  <si>
-    <t>Fresh Ginger</t>
-  </si>
-  <si>
-    <t>Sodium Tricitrate</t>
+    <t>PackingSize</t>
+  </si>
+  <si>
+    <t>PackingSizeUnit</t>
+  </si>
+  <si>
+    <t>UOM_Id</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Cumin Gravy</t>
   </si>
 </sst>
 </file>
@@ -417,122 +402,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
